--- a/Answers/E2ProteinsMST.xlsx
+++ b/Answers/E2ProteinsMST.xlsx
@@ -436,609 +436,609 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>('ANG_1',)</t>
+          <t>ANG_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>('BDNF_1',)</t>
+          <t>BDNF_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>('BLC_1',)</t>
+          <t>BLC_1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>('BMP-4_1',)</t>
+          <t>BMP-4_1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>('BMP-6_1',)</t>
+          <t>BMP-6_1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>('CK b8-1_1',)</t>
+          <t>CK b8-1_1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>('CNTF_1',)</t>
+          <t>CNTF_1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>('EGF_1',)</t>
+          <t>EGF_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>('Eotaxin_1',)</t>
+          <t>Eotaxin_1</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>('Eotaxin-2_1',)</t>
+          <t>Eotaxin-2_1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>('Eotaxin-3_1',)</t>
+          <t>Eotaxin-3_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>('FGF-6_1',)</t>
+          <t>FGF-6_1</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>('FGF-7_1',)</t>
+          <t>FGF-7_1</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>('Fit-3 Ligand_1',)</t>
+          <t>Fit-3 Ligand_1</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>('Fractalkine_1',)</t>
+          <t>Fractalkine_1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>('GCP-2_1',)</t>
+          <t>GCP-2_1</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>('GDNF_1',)</t>
+          <t>GDNF_1</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>('GM-CSF_1',)</t>
+          <t>GM-CSF_1</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>('I-309_1',)</t>
+          <t>I-309_1</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>('IFN-g_1',)</t>
+          <t>IFN-g_1</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>('IGF-1_1',)</t>
+          <t>IGF-1_1</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP-1_1',)</t>
+          <t>IGFBP-1_1</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP-2_1',)</t>
+          <t>IGFBP-2_1</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP-4_1',)</t>
+          <t>IGFBP-4_1</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>('IL-10_1',)</t>
+          <t>IL-10_1</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>('IL-13_1',)</t>
+          <t>IL-13_1</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>('IL-15_1',)</t>
+          <t>IL-15_1</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>('IL-16_1',)</t>
+          <t>IL-16_1</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>('IL-1a_1',)</t>
+          <t>IL-1a_1</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>('IL-1b_1',)</t>
+          <t>IL-1b_1</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>('IL-1ra_1',)</t>
+          <t>IL-1ra_1</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>('IL-2_1',)</t>
+          <t>IL-2_1</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>('IL-3_1',)</t>
+          <t>IL-3_1</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>('IL-4_1',)</t>
+          <t>IL-4_1</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>('IL-5_1',)</t>
+          <t>IL-5_1</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>('IL-6_1',)</t>
+          <t>IL-6_1</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>('IL-7_1',)</t>
+          <t>IL-7_1</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>('LEPTIN(OB)_1',)</t>
+          <t>LEPTIN(OB)_1</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>('LIGHT_1',)</t>
+          <t>LIGHT_1</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>('MCP-1_1',)</t>
+          <t>MCP-1_1</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>('MCP-2_1',)</t>
+          <t>MCP-2_1</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>('MCP-3_1',)</t>
+          <t>MCP-3_1</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>('MCP-4_1',)</t>
+          <t>MCP-4_1</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>('M-CSF_1',)</t>
+          <t>M-CSF_1</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>('MDC_1',)</t>
+          <t>MDC_1</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>('MIG_1',)</t>
+          <t>MIG_1</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>('MIP-1d_1',)</t>
+          <t>MIP-1d_1</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>('MIP-3a_1',)</t>
+          <t>MIP-3a_1</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>('NAP-2_1',)</t>
+          <t>NAP-2_1</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>('NT-3_1',)</t>
+          <t>NT-3_1</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>('PARC_1',)</t>
+          <t>PARC_1</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>('PDGF-BB_1',)</t>
+          <t>PDGF-BB_1</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>('RANTES_1',)</t>
+          <t>RANTES_1</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>('SCF_1',)</t>
+          <t>SCF_1</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>('SDF-1_1',)</t>
+          <t>SDF-1_1</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>('TARC_1',)</t>
+          <t>TARC_1</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>('TGF-b_1',)</t>
+          <t>TGF-b_1</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>('TGF-b3_1',)</t>
+          <t>TGF-b3_1</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>('TNF-a_1',)</t>
+          <t>TNF-a_1</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>('TNF-b_1',)</t>
+          <t>TNF-b_1</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>('Acrp30_1',)</t>
+          <t>Acrp30_1</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>('AgRP(ART)_1',)</t>
+          <t>AgRP(ART)_1</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>('ANG-2_1',)</t>
+          <t>ANG-2_1</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>('AR_1',)</t>
+          <t>AR_1</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>('AXL_1',)</t>
+          <t>AXL_1</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>('bFGF',)</t>
+          <t>bFGF</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>('b-NGF_1',)</t>
+          <t>b-NGF_1</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>('BTC_1',)</t>
+          <t>BTC_1</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>('CCL-28_1',)</t>
+          <t>CCL-28_1</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>('CTACK_1',)</t>
+          <t>CTACK_1</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>('DTK_1',)</t>
+          <t>DTK_1</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>('EGF-R_1',)</t>
+          <t>EGF-R_1</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>('ENA-78_1',)</t>
+          <t>ENA-78_1</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>('FAS_1',)</t>
+          <t>FAS_1</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>('FGF-4_1',)</t>
+          <t>FGF-4_1</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>('FGF-9_1',)</t>
+          <t>FGF-9_1</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>('GCSF_1',)</t>
+          <t>GCSF_1</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>('GITR_1',)</t>
+          <t>GITR_1</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>('GITR-Light_1',)</t>
+          <t>GITR-Light_1</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>('GRO_1',)</t>
+          <t>GRO_1</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>('GRO-a_1',)</t>
+          <t>GRO-a_1</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>('HCC-4_1',)</t>
+          <t>HCC-4_1</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>('HGF_1',)</t>
+          <t>HGF_1</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>('ICAM-1_1',)</t>
+          <t>ICAM-1_1</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>('ICAM-3_1',)</t>
+          <t>ICAM-3_1</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>('IGF-1 SR',)</t>
+          <t>IGF-1 SR</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP3_1',)</t>
+          <t>IGFBP3_1</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP-6_1',)</t>
+          <t>IGFBP-6_1</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>('IL-1 RI_1',)</t>
+          <t>IL-1 RI_1</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>('IL-11_1',)</t>
+          <t>IL-11_1</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>('IL-12 p40_1',)</t>
+          <t>IL-12 p40_1</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>('IL-12 p70_1',)</t>
+          <t>IL-12 p70_1</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>('IL-17_1',)</t>
+          <t>IL-17_1</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>('IL-1R4 /ST2_1',)</t>
+          <t>IL-1R4 /ST2_1</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>('IL-2 Ra_1',)</t>
+          <t>IL-2 Ra_1</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>('IL-6 R_1',)</t>
+          <t>IL-6 R_1</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>('IL-8_1',)</t>
+          <t>IL-8_1</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>('I-TAC_1',)</t>
+          <t>I-TAC_1</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>('Lymphotactin_1',)</t>
+          <t>Lymphotactin_1</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>('MIF_1',)</t>
+          <t>MIF_1</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>('MIP-1a_1',)</t>
+          <t>MIP-1a_1</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>('MIP-1b_1',)</t>
+          <t>MIP-1b_1</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>('MIP-3b_1',)</t>
+          <t>MIP-3b_1</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>('MSP-a_1',)</t>
+          <t>MSP-a_1</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>('NT-4_1',)</t>
+          <t>NT-4_1</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>('OSM_1',)</t>
+          <t>OSM_1</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>('OST_1',)</t>
+          <t>OST_1</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>('PIGF_1',)</t>
+          <t>PIGF_1</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>('spg130_1',)</t>
+          <t>spg130_1</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>('sTNF RI_1',)</t>
+          <t>sTNF RI_1</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>('sTNF RII_1',)</t>
+          <t>sTNF RII_1</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>('TECK_1',)</t>
+          <t>TECK_1</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>('TIMP-1_1',)</t>
+          <t>TIMP-1_1</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>('TIMP-2_1',)</t>
+          <t>TIMP-2_1</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>('TPO_1',)</t>
+          <t>TPO_1</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>('TRAIL R3_1',)</t>
+          <t>TRAIL R3_1</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>('TRAIL R4_1',)</t>
+          <t>TRAIL R4_1</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>('uPAR_1',)</t>
+          <t>uPAR_1</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>('VEGF-B_1',)</t>
+          <t>VEGF-B_1</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>('VEGF-D_1',)</t>
+          <t>VEGF-D_1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('ANG_1',)</t>
+          <t>ANG_1</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1405,7 +1405,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('BDNF_1',)</t>
+          <t>BDNF_1</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1772,7 +1772,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('BLC_1',)</t>
+          <t>BLC_1</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2139,7 +2139,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('BMP-4_1',)</t>
+          <t>BMP-4_1</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2506,7 +2506,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('BMP-6_1',)</t>
+          <t>BMP-6_1</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2873,7 +2873,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('CK b8-1_1',)</t>
+          <t>CK b8-1_1</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3240,7 +3240,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('CNTF_1',)</t>
+          <t>CNTF_1</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3607,7 +3607,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('EGF_1',)</t>
+          <t>EGF_1</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3974,7 +3974,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('Eotaxin_1',)</t>
+          <t>Eotaxin_1</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4341,7 +4341,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('Eotaxin-2_1',)</t>
+          <t>Eotaxin-2_1</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -4708,7 +4708,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('Eotaxin-3_1',)</t>
+          <t>Eotaxin-3_1</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -5075,7 +5075,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('FGF-6_1',)</t>
+          <t>FGF-6_1</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -5442,7 +5442,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('FGF-7_1',)</t>
+          <t>FGF-7_1</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -5809,7 +5809,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('Fit-3 Ligand_1',)</t>
+          <t>Fit-3 Ligand_1</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -6176,7 +6176,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('Fractalkine_1',)</t>
+          <t>Fractalkine_1</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -6543,7 +6543,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('GCP-2_1',)</t>
+          <t>GCP-2_1</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -6910,7 +6910,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('GDNF_1',)</t>
+          <t>GDNF_1</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -7277,7 +7277,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('GM-CSF_1',)</t>
+          <t>GM-CSF_1</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -7644,7 +7644,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('I-309_1',)</t>
+          <t>I-309_1</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -8011,7 +8011,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('IFN-g_1',)</t>
+          <t>IFN-g_1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -8378,7 +8378,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('IGF-1_1',)</t>
+          <t>IGF-1_1</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -8745,7 +8745,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP-1_1',)</t>
+          <t>IGFBP-1_1</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -9112,7 +9112,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP-2_1',)</t>
+          <t>IGFBP-2_1</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -9479,7 +9479,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP-4_1',)</t>
+          <t>IGFBP-4_1</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -9846,7 +9846,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('IL-10_1',)</t>
+          <t>IL-10_1</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -10213,7 +10213,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('IL-13_1',)</t>
+          <t>IL-13_1</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -10580,7 +10580,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('IL-15_1',)</t>
+          <t>IL-15_1</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -10947,7 +10947,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('IL-16_1',)</t>
+          <t>IL-16_1</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -11314,7 +11314,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('IL-1a_1',)</t>
+          <t>IL-1a_1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -11681,7 +11681,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('IL-1b_1',)</t>
+          <t>IL-1b_1</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -12048,7 +12048,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('IL-1ra_1',)</t>
+          <t>IL-1ra_1</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -12415,7 +12415,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('IL-2_1',)</t>
+          <t>IL-2_1</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -12782,7 +12782,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('IL-3_1',)</t>
+          <t>IL-3_1</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -13149,7 +13149,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('IL-4_1',)</t>
+          <t>IL-4_1</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -13516,7 +13516,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('IL-5_1',)</t>
+          <t>IL-5_1</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -13883,7 +13883,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('IL-6_1',)</t>
+          <t>IL-6_1</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -14250,7 +14250,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('IL-7_1',)</t>
+          <t>IL-7_1</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -14617,7 +14617,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('LEPTIN(OB)_1',)</t>
+          <t>LEPTIN(OB)_1</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -14984,7 +14984,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('LIGHT_1',)</t>
+          <t>LIGHT_1</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -15351,7 +15351,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('MCP-1_1',)</t>
+          <t>MCP-1_1</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -15718,7 +15718,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('MCP-2_1',)</t>
+          <t>MCP-2_1</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -16085,7 +16085,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('MCP-3_1',)</t>
+          <t>MCP-3_1</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -16452,7 +16452,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('MCP-4_1',)</t>
+          <t>MCP-4_1</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -16819,7 +16819,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('M-CSF_1',)</t>
+          <t>M-CSF_1</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -17186,7 +17186,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('MDC_1',)</t>
+          <t>MDC_1</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -17553,7 +17553,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('MIG_1',)</t>
+          <t>MIG_1</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -17920,7 +17920,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('MIP-1d_1',)</t>
+          <t>MIP-1d_1</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -18287,7 +18287,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('MIP-3a_1',)</t>
+          <t>MIP-3a_1</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -18654,7 +18654,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('NAP-2_1',)</t>
+          <t>NAP-2_1</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -19021,7 +19021,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('NT-3_1',)</t>
+          <t>NT-3_1</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -19388,7 +19388,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('PARC_1',)</t>
+          <t>PARC_1</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -19755,7 +19755,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('PDGF-BB_1',)</t>
+          <t>PDGF-BB_1</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -20122,7 +20122,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('RANTES_1',)</t>
+          <t>RANTES_1</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -20489,7 +20489,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('SCF_1',)</t>
+          <t>SCF_1</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -20856,7 +20856,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('SDF-1_1',)</t>
+          <t>SDF-1_1</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -21223,7 +21223,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('TARC_1',)</t>
+          <t>TARC_1</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -21590,7 +21590,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('TGF-b_1',)</t>
+          <t>TGF-b_1</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -21957,7 +21957,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('TGF-b3_1',)</t>
+          <t>TGF-b3_1</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -22324,7 +22324,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('TNF-a_1',)</t>
+          <t>TNF-a_1</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -22691,7 +22691,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('TNF-b_1',)</t>
+          <t>TNF-b_1</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -23058,7 +23058,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('Acrp30_1',)</t>
+          <t>Acrp30_1</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -23425,7 +23425,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('AgRP(ART)_1',)</t>
+          <t>AgRP(ART)_1</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -23792,7 +23792,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('ANG-2_1',)</t>
+          <t>ANG-2_1</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -24159,7 +24159,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('AR_1',)</t>
+          <t>AR_1</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -24526,7 +24526,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('AXL_1',)</t>
+          <t>AXL_1</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -24893,7 +24893,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('bFGF',)</t>
+          <t>bFGF</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -25260,7 +25260,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('b-NGF_1',)</t>
+          <t>b-NGF_1</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -25627,7 +25627,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('BTC_1',)</t>
+          <t>BTC_1</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -25994,7 +25994,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('CCL-28_1',)</t>
+          <t>CCL-28_1</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -26361,7 +26361,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('CTACK_1',)</t>
+          <t>CTACK_1</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -26728,7 +26728,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('DTK_1',)</t>
+          <t>DTK_1</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -27095,7 +27095,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('EGF-R_1',)</t>
+          <t>EGF-R_1</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -27462,7 +27462,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('ENA-78_1',)</t>
+          <t>ENA-78_1</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -27829,7 +27829,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('FAS_1',)</t>
+          <t>FAS_1</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -28196,7 +28196,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('FGF-4_1',)</t>
+          <t>FGF-4_1</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -28563,7 +28563,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('FGF-9_1',)</t>
+          <t>FGF-9_1</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -28930,7 +28930,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('GCSF_1',)</t>
+          <t>GCSF_1</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -29297,7 +29297,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('GITR_1',)</t>
+          <t>GITR_1</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -29664,7 +29664,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('GITR-Light_1',)</t>
+          <t>GITR-Light_1</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -30031,7 +30031,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('GRO_1',)</t>
+          <t>GRO_1</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -30398,7 +30398,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('GRO-a_1',)</t>
+          <t>GRO-a_1</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -30765,7 +30765,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('HCC-4_1',)</t>
+          <t>HCC-4_1</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -31132,7 +31132,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('HGF_1',)</t>
+          <t>HGF_1</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -31499,7 +31499,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('ICAM-1_1',)</t>
+          <t>ICAM-1_1</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -31866,7 +31866,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('ICAM-3_1',)</t>
+          <t>ICAM-3_1</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -32233,7 +32233,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('IGF-1 SR',)</t>
+          <t>IGF-1 SR</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -32600,7 +32600,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP3_1',)</t>
+          <t>IGFBP3_1</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -32967,7 +32967,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP-6_1',)</t>
+          <t>IGFBP-6_1</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -33334,7 +33334,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('IL-1 RI_1',)</t>
+          <t>IL-1 RI_1</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -33701,7 +33701,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('IL-11_1',)</t>
+          <t>IL-11_1</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -34068,7 +34068,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('IL-12 p40_1',)</t>
+          <t>IL-12 p40_1</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -34435,7 +34435,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('IL-12 p70_1',)</t>
+          <t>IL-12 p70_1</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -34802,7 +34802,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('IL-17_1',)</t>
+          <t>IL-17_1</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -35169,7 +35169,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('IL-1R4 /ST2_1',)</t>
+          <t>IL-1R4 /ST2_1</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -35536,7 +35536,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('IL-2 Ra_1',)</t>
+          <t>IL-2 Ra_1</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -35903,7 +35903,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('IL-6 R_1',)</t>
+          <t>IL-6 R_1</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -36270,7 +36270,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('IL-8_1',)</t>
+          <t>IL-8_1</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -36637,7 +36637,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('I-TAC_1',)</t>
+          <t>I-TAC_1</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -37004,7 +37004,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('Lymphotactin_1',)</t>
+          <t>Lymphotactin_1</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -37371,7 +37371,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('MIF_1',)</t>
+          <t>MIF_1</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -37738,7 +37738,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>('MIP-1a_1',)</t>
+          <t>MIP-1a_1</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -38105,7 +38105,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>('MIP-1b_1',)</t>
+          <t>MIP-1b_1</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -38472,7 +38472,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>('MIP-3b_1',)</t>
+          <t>MIP-3b_1</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -38839,7 +38839,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>('MSP-a_1',)</t>
+          <t>MSP-a_1</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -39206,7 +39206,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>('NT-4_1',)</t>
+          <t>NT-4_1</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -39573,7 +39573,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>('OSM_1',)</t>
+          <t>OSM_1</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -39940,7 +39940,7 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>('OST_1',)</t>
+          <t>OST_1</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -40307,7 +40307,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>('PIGF_1',)</t>
+          <t>PIGF_1</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -40674,7 +40674,7 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>('spg130_1',)</t>
+          <t>spg130_1</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -41041,7 +41041,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>('sTNF RI_1',)</t>
+          <t>sTNF RI_1</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -41408,7 +41408,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>('sTNF RII_1',)</t>
+          <t>sTNF RII_1</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -41775,7 +41775,7 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>('TECK_1',)</t>
+          <t>TECK_1</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -42142,7 +42142,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>('TIMP-1_1',)</t>
+          <t>TIMP-1_1</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -42509,7 +42509,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>('TIMP-2_1',)</t>
+          <t>TIMP-2_1</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -42876,7 +42876,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>('TPO_1',)</t>
+          <t>TPO_1</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -43243,7 +43243,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>('TRAIL R3_1',)</t>
+          <t>TRAIL R3_1</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -43610,7 +43610,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>('TRAIL R4_1',)</t>
+          <t>TRAIL R4_1</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -43977,7 +43977,7 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>('uPAR_1',)</t>
+          <t>uPAR_1</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -44344,7 +44344,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>('VEGF-B_1',)</t>
+          <t>VEGF-B_1</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -44711,7 +44711,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>('VEGF-D_1',)</t>
+          <t>VEGF-D_1</t>
         </is>
       </c>
       <c r="B121" t="n">

--- a/Answers/E2ProteinsMST.xlsx
+++ b/Answers/E2ProteinsMST.xlsx
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>9.394959354128366</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>24.17585834702437</v>
       </c>
       <c r="BK2" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>5.488833361597223</v>
+        <v>8.850844347339383</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.503227452536552</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>2.965000343317875</v>
+        <v>0</v>
       </c>
       <c r="BJ4" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.756671734585768</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4.879885742431875</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5.482863315277475</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>4.593853364642668</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>3.554093945035052</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>4.243800881781737</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>3.760234059271277</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.645973081308798</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>3.870311990170898</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>4.177045382465876</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
@@ -3256,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.422747994295879</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.596367245345896</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>8.385094399780142</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6.754764674618247</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>8.259171158182752</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
         <v>0</v>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>3.93520058635626</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>3.912646640956235</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.292880475141988</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>2.32082050634131</v>
+        <v>2.827261298161065</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>3.976331521681641</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -4895,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>0</v>
+        <v>8.23004376753911</v>
       </c>
       <c r="BL12" t="n">
         <v>0</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>5.156116923120276</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.898026954657288</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.948093261363041</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.722490062956375</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.80804402723566</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -5629,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>5.267679364706636</v>
+        <v>0</v>
       </c>
       <c r="BL14" t="n">
         <v>0</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2.250981012875719</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2.823690685293491</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.617900651884891</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2.878707668526687</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.676151641047509</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>2.359507205283834</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="BE17" t="n">
-        <v>0</v>
+        <v>2.591157057458025</v>
       </c>
       <c r="BF17" t="n">
         <v>0</v>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>3.696151864366196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>4.093850753795754</v>
       </c>
       <c r="AE18" t="n">
         <v>0</v>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="BH18" t="n">
-        <v>2.986409797490853</v>
+        <v>0</v>
       </c>
       <c r="BI18" t="n">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="DH18" t="n">
-        <v>3.937858150163275</v>
+        <v>0</v>
       </c>
       <c r="DI18" t="n">
         <v>0</v>
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2.028876777873133</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -7356,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.092150265441895</v>
+        <v>2.476786137999777</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.722242566256013</v>
+        <v>2.12504857488901</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
@@ -7687,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.291533095498</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.796642255169111</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -7762,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>3.177567634213732</v>
       </c>
       <c r="AO20" t="n">
         <v>0</v>
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4.960079617021004</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8114,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>3.048303169092464</v>
       </c>
       <c r="AJ21" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3.232608373058018</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -8887,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>0</v>
+        <v>5.873228201840857</v>
       </c>
       <c r="AW23" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>0</v>
+        <v>6.645208814428268</v>
       </c>
       <c r="AW24" t="n">
         <v>0</v>
@@ -9651,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="BF25" t="n">
-        <v>0</v>
+        <v>3.904213583064114</v>
       </c>
       <c r="BG25" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>4.238565150373251</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10156,7 +10156,7 @@
         <v>0</v>
       </c>
       <c r="CZ26" t="n">
-        <v>3.523248584611149</v>
+        <v>0</v>
       </c>
       <c r="DA26" t="n">
         <v>0</v>
@@ -10623,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>2.224818841563891</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>2.378746380418617</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>1.665526508726475</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="AR28" t="n">
-        <v>0</v>
+        <v>2.902417192664204</v>
       </c>
       <c r="AS28" t="n">
         <v>0</v>
@@ -10996,7 +10996,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.869755168429674</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -11552,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="CB30" t="n">
-        <v>3.542988567676931</v>
+        <v>0</v>
       </c>
       <c r="CC30" t="n">
         <v>0</v>
@@ -11724,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>2.079033988058488</v>
+        <v>3.010801889180846</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -12190,7 +12190,7 @@
         <v>0</v>
       </c>
       <c r="AV32" t="n">
-        <v>0</v>
+        <v>5.9573013019862</v>
       </c>
       <c r="AW32" t="n">
         <v>0</v>
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>2.243462198009503</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
@@ -12524,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>2.196142074927642</v>
+        <v>2.656801018871271</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
@@ -12918,7 +12918,7 @@
         <v>0</v>
       </c>
       <c r="AT34" t="n">
-        <v>0</v>
+        <v>3.495247114026736</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -13210,7 +13210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.144596446855491</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -13270,13 +13270,13 @@
         <v>0</v>
       </c>
       <c r="AO35" t="n">
-        <v>2.309220205611144</v>
+        <v>0</v>
       </c>
       <c r="AP35" t="n">
         <v>0</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0</v>
+        <v>3.11465588373536</v>
       </c>
       <c r="AR35" t="n">
         <v>0</v>
@@ -13285,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="AT35" t="n">
-        <v>0</v>
+        <v>2.747698804584394</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -13294,7 +13294,7 @@
         <v>0</v>
       </c>
       <c r="AW35" t="n">
-        <v>2.15372672544061</v>
+        <v>0</v>
       </c>
       <c r="AX35" t="n">
         <v>0</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>2.808593234812537</v>
+        <v>3.81943230257597</v>
       </c>
       <c r="AM36" t="n">
         <v>0</v>
@@ -14717,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="AH39" t="n">
-        <v>4.589441003013686</v>
+        <v>6.108522798685251</v>
       </c>
       <c r="AI39" t="n">
         <v>0</v>
@@ -15490,7 +15490,7 @@
         <v>0</v>
       </c>
       <c r="AU41" t="n">
-        <v>0</v>
+        <v>3.399112329857948</v>
       </c>
       <c r="AV41" t="n">
         <v>0</v>
@@ -15845,7 +15845,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2.813600067993013</v>
+        <v>3.747945909954936</v>
       </c>
       <c r="AR42" t="n">
         <v>0</v>
@@ -16188,7 +16188,7 @@
         <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>2.128532840382881</v>
+        <v>0</v>
       </c>
       <c r="AJ43" t="n">
         <v>0</v>
@@ -16203,7 +16203,7 @@
         <v>0</v>
       </c>
       <c r="AN43" t="n">
-        <v>2.377641138685495</v>
+        <v>0</v>
       </c>
       <c r="AO43" t="n">
         <v>0</v>
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="AR43" t="n">
-        <v>0</v>
+        <v>2.804781546947228</v>
       </c>
       <c r="AS43" t="n">
         <v>0</v>
@@ -16224,7 +16224,7 @@
         <v>0</v>
       </c>
       <c r="AU43" t="n">
-        <v>0</v>
+        <v>3.203696375952768</v>
       </c>
       <c r="AV43" t="n">
         <v>0</v>
@@ -16495,7 +16495,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2.148182845761912</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -16525,7 +16525,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.621409194366108</v>
+        <v>0</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
@@ -16835,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2.964924660496543</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -16955,13 +16955,13 @@
         <v>0</v>
       </c>
       <c r="AT45" t="n">
-        <v>0</v>
+        <v>3.432773010356859</v>
       </c>
       <c r="AU45" t="n">
         <v>0</v>
       </c>
       <c r="AV45" t="n">
-        <v>0</v>
+        <v>4.77760270034677</v>
       </c>
       <c r="AW45" t="n">
         <v>0</v>
@@ -17205,7 +17205,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.513151089166217</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -17289,7 +17289,7 @@
         <v>0</v>
       </c>
       <c r="AI46" t="n">
-        <v>1.885435034702472</v>
+        <v>0</v>
       </c>
       <c r="AJ46" t="n">
         <v>0</v>
@@ -17680,7 +17680,7 @@
         <v>0</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.250570010037356</v>
+        <v>0</v>
       </c>
       <c r="AR47" t="n">
         <v>0</v>
@@ -17990,7 +17990,7 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>4.803418869017743</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
         <v>0</v>
@@ -18014,7 +18014,7 @@
         <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>4.425938589468746</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
         <v>0</v>
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="BF49" t="n">
-        <v>0</v>
+        <v>2.883292165593854</v>
       </c>
       <c r="BG49" t="n">
         <v>0</v>
@@ -18994,7 +18994,7 @@
         <v>0</v>
       </c>
       <c r="DJ50" t="n">
-        <v>8.030522386463062</v>
+        <v>12.67867299635312</v>
       </c>
       <c r="DK50" t="n">
         <v>0</v>
@@ -19193,7 +19193,7 @@
         <v>0</v>
       </c>
       <c r="BF51" t="n">
-        <v>2.52724994062567</v>
+        <v>0</v>
       </c>
       <c r="BG51" t="n">
         <v>0</v>
@@ -19392,7 +19392,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>12.9493419011931</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -19536,7 +19536,7 @@
         <v>0</v>
       </c>
       <c r="AX52" t="n">
-        <v>8.922599373509998</v>
+        <v>13.63233633022057</v>
       </c>
       <c r="AY52" t="n">
         <v>0</v>
@@ -19731,7 +19731,7 @@
         <v>0</v>
       </c>
       <c r="DK52" t="n">
-        <v>0</v>
+        <v>12.25531587217322</v>
       </c>
       <c r="DL52" t="n">
         <v>0</v>
@@ -19780,7 +19780,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>9.901279560986946</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="DK54" t="n">
-        <v>7.607953528287709</v>
+        <v>0</v>
       </c>
       <c r="DL54" t="n">
         <v>0</v>
@@ -20664,7 +20664,7 @@
         <v>0</v>
       </c>
       <c r="BG55" t="n">
-        <v>0</v>
+        <v>4.856732531619456</v>
       </c>
       <c r="BH55" t="n">
         <v>0</v>
@@ -21028,7 +21028,7 @@
         <v>0</v>
       </c>
       <c r="BF56" t="n">
-        <v>2.099677031521926</v>
+        <v>2.596558165275146</v>
       </c>
       <c r="BG56" t="n">
         <v>0</v>
@@ -21272,7 +21272,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.816033187750471</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -21395,7 +21395,7 @@
         <v>0</v>
       </c>
       <c r="BF57" t="n">
-        <v>0</v>
+        <v>2.987252222262248</v>
       </c>
       <c r="BG57" t="n">
         <v>0</v>
@@ -21449,7 +21449,7 @@
         <v>0</v>
       </c>
       <c r="BX57" t="n">
-        <v>3.394903475043588</v>
+        <v>0</v>
       </c>
       <c r="BY57" t="n">
         <v>0</v>
@@ -21633,7 +21633,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>2.146878205938587</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -21735,7 +21735,7 @@
         <v>0</v>
       </c>
       <c r="AW58" t="n">
-        <v>2.131377904319964</v>
+        <v>0</v>
       </c>
       <c r="AX58" t="n">
         <v>0</v>
@@ -22108,7 +22108,7 @@
         <v>0</v>
       </c>
       <c r="AY59" t="n">
-        <v>0</v>
+        <v>4.65068113270863</v>
       </c>
       <c r="AZ59" t="n">
         <v>0</v>
@@ -22120,7 +22120,7 @@
         <v>0</v>
       </c>
       <c r="BC59" t="n">
-        <v>3.413075678343557</v>
+        <v>0</v>
       </c>
       <c r="BD59" t="n">
         <v>0</v>
@@ -22138,7 +22138,7 @@
         <v>0</v>
       </c>
       <c r="BI59" t="n">
-        <v>2.707645789626695</v>
+        <v>0</v>
       </c>
       <c r="BJ59" t="n">
         <v>0</v>
@@ -22376,7 +22376,7 @@
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>4.089880816282625</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -22866,7 +22866,7 @@
         <v>0</v>
       </c>
       <c r="BG61" t="n">
-        <v>0</v>
+        <v>4.308205518574122</v>
       </c>
       <c r="BH61" t="n">
         <v>0</v>
@@ -23062,7 +23062,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>16.04257593723533</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -24716,10 +24716,10 @@
         <v>0</v>
       </c>
       <c r="BL66" t="n">
-        <v>2.576995122332297</v>
+        <v>4.280389082889168</v>
       </c>
       <c r="BM66" t="n">
-        <v>2.499967013235069</v>
+        <v>3.827965763848047</v>
       </c>
       <c r="BN66" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="BN67" t="n">
-        <v>2.736457071365064</v>
+        <v>4.30825272042188</v>
       </c>
       <c r="BO67" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>0</v>
       </c>
       <c r="BQ67" t="n">
-        <v>0</v>
+        <v>4.782141785460686</v>
       </c>
       <c r="BR67" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="BM68" t="n">
-        <v>2.748545323252642</v>
+        <v>4.417645575930695</v>
       </c>
       <c r="BN68" t="n">
         <v>0</v>
@@ -25495,7 +25495,7 @@
         <v>0</v>
       </c>
       <c r="CA68" t="n">
-        <v>2.822813319893199</v>
+        <v>0</v>
       </c>
       <c r="CB68" t="n">
         <v>0</v>
@@ -25829,7 +25829,7 @@
         <v>0</v>
       </c>
       <c r="BP69" t="n">
-        <v>2.632082885986659</v>
+        <v>0</v>
       </c>
       <c r="BQ69" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>3.987180228229663</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -26244,7 +26244,7 @@
         <v>0</v>
       </c>
       <c r="CF70" t="n">
-        <v>2.657207427954344</v>
+        <v>0</v>
       </c>
       <c r="CG70" t="n">
         <v>0</v>
@@ -26623,7 +26623,7 @@
         <v>0</v>
       </c>
       <c r="CJ71" t="n">
-        <v>4.276974468037731</v>
+        <v>0</v>
       </c>
       <c r="CK71" t="n">
         <v>0</v>
@@ -26656,7 +26656,7 @@
         <v>0</v>
       </c>
       <c r="CU71" t="n">
-        <v>4.761382161639783</v>
+        <v>0</v>
       </c>
       <c r="CV71" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="CH72" t="n">
-        <v>2.66944001022407</v>
+        <v>3.613959322574175</v>
       </c>
       <c r="CI72" t="n">
         <v>0</v>
@@ -27147,7 +27147,7 @@
         <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>3.359126140303946</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
         <v>0</v>
@@ -27291,7 +27291,7 @@
         <v>0</v>
       </c>
       <c r="BN73" t="n">
-        <v>0</v>
+        <v>3.711736814264282</v>
       </c>
       <c r="BO73" t="n">
         <v>0</v>
@@ -27300,7 +27300,7 @@
         <v>0</v>
       </c>
       <c r="BQ73" t="n">
-        <v>2.50136186387952</v>
+        <v>0</v>
       </c>
       <c r="BR73" t="n">
         <v>0</v>
@@ -27357,7 +27357,7 @@
         <v>0</v>
       </c>
       <c r="CJ73" t="n">
-        <v>1.843251696734611</v>
+        <v>3.1357318407413</v>
       </c>
       <c r="CK73" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="DI73" t="n">
-        <v>0</v>
+        <v>9.204066256986609</v>
       </c>
       <c r="DJ73" t="n">
         <v>0</v>
@@ -27502,7 +27502,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>2.343386185556982</v>
+        <v>3.591992893489468</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -27709,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="CE74" t="n">
-        <v>0</v>
+        <v>3.590977511517607</v>
       </c>
       <c r="CF74" t="n">
         <v>0</v>
@@ -28094,7 +28094,7 @@
         <v>0</v>
       </c>
       <c r="CK75" t="n">
-        <v>0</v>
+        <v>5.199369467563042</v>
       </c>
       <c r="CL75" t="n">
         <v>0</v>
@@ -28365,7 +28365,7 @@
         <v>0</v>
       </c>
       <c r="BE76" t="n">
-        <v>0</v>
+        <v>4.591889846317324</v>
       </c>
       <c r="BF76" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         <v>0</v>
       </c>
       <c r="CA77" t="n">
-        <v>0</v>
+        <v>4.02641509145926</v>
       </c>
       <c r="CB77" t="n">
         <v>0</v>
@@ -29270,7 +29270,7 @@
         <v>0</v>
       </c>
       <c r="DJ78" t="n">
-        <v>9.306193270644119</v>
+        <v>0</v>
       </c>
       <c r="DK78" t="n">
         <v>0</v>
@@ -29896,7 +29896,7 @@
         <v>0</v>
       </c>
       <c r="BZ80" t="n">
-        <v>0</v>
+        <v>11.95467686381343</v>
       </c>
       <c r="CA80" t="n">
         <v>0</v>
@@ -30377,7 +30377,7 @@
         <v>0</v>
       </c>
       <c r="DL81" t="n">
-        <v>0</v>
+        <v>4.120340527757106</v>
       </c>
       <c r="DM81" t="n">
         <v>0</v>
@@ -30958,7 +30958,7 @@
         <v>0</v>
       </c>
       <c r="BM83" t="n">
-        <v>2.598964809284267</v>
+        <v>0</v>
       </c>
       <c r="BN83" t="n">
         <v>0</v>
@@ -31009,7 +31009,7 @@
         <v>0</v>
       </c>
       <c r="CD83" t="n">
-        <v>0</v>
+        <v>3.672772004418964</v>
       </c>
       <c r="CE83" t="n">
         <v>0</v>
@@ -31451,7 +31451,7 @@
         <v>0</v>
       </c>
       <c r="DC84" t="n">
-        <v>0</v>
+        <v>3.866907309702897</v>
       </c>
       <c r="DD84" t="n">
         <v>0</v>
@@ -31710,7 +31710,7 @@
         <v>0</v>
       </c>
       <c r="BS85" t="n">
-        <v>5.935260009287351</v>
+        <v>0</v>
       </c>
       <c r="BT85" t="n">
         <v>0</v>
@@ -32125,7 +32125,7 @@
         <v>0</v>
       </c>
       <c r="CI86" t="n">
-        <v>0</v>
+        <v>3.862846346989954</v>
       </c>
       <c r="CJ86" t="n">
         <v>0</v>
@@ -32462,7 +32462,7 @@
         <v>0</v>
       </c>
       <c r="BY87" t="n">
-        <v>0</v>
+        <v>3.356609111124848</v>
       </c>
       <c r="BZ87" t="n">
         <v>0</v>
@@ -32480,7 +32480,7 @@
         <v>0</v>
       </c>
       <c r="CE87" t="n">
-        <v>2.503884706286887</v>
+        <v>0</v>
       </c>
       <c r="CF87" t="n">
         <v>0</v>
@@ -32489,7 +32489,7 @@
         <v>0</v>
       </c>
       <c r="CH87" t="n">
-        <v>2.56621734953772</v>
+        <v>0</v>
       </c>
       <c r="CI87" t="n">
         <v>0</v>
@@ -32516,7 +32516,7 @@
         <v>0</v>
       </c>
       <c r="CQ87" t="n">
-        <v>0</v>
+        <v>2.978396363558489</v>
       </c>
       <c r="CR87" t="n">
         <v>0</v>
@@ -32811,7 +32811,7 @@
         <v>0</v>
       </c>
       <c r="BS88" t="n">
-        <v>0</v>
+        <v>5.800239209224299</v>
       </c>
       <c r="BT88" t="n">
         <v>0</v>
@@ -32823,7 +32823,7 @@
         <v>0</v>
       </c>
       <c r="BW88" t="n">
-        <v>3.008498458381427</v>
+        <v>4.11912818345099</v>
       </c>
       <c r="BX88" t="n">
         <v>0</v>
@@ -32904,7 +32904,7 @@
         <v>0</v>
       </c>
       <c r="CX88" t="n">
-        <v>2.532125434925241</v>
+        <v>0</v>
       </c>
       <c r="CY88" t="n">
         <v>0</v>
@@ -33229,7 +33229,7 @@
         <v>0</v>
       </c>
       <c r="CJ89" t="n">
-        <v>3.486360071631426</v>
+        <v>0</v>
       </c>
       <c r="CK89" t="n">
         <v>0</v>
@@ -33593,7 +33593,7 @@
         <v>0</v>
       </c>
       <c r="CI90" t="n">
-        <v>2.277078564416744</v>
+        <v>3.050417947008925</v>
       </c>
       <c r="CJ90" t="n">
         <v>0</v>
@@ -33605,7 +33605,7 @@
         <v>0</v>
       </c>
       <c r="CM90" t="n">
-        <v>0</v>
+        <v>3.02840314611474</v>
       </c>
       <c r="CN90" t="n">
         <v>0</v>
@@ -33870,7 +33870,7 @@
         <v>0</v>
       </c>
       <c r="BE91" t="n">
-        <v>2.340490449035523</v>
+        <v>3.503326185411813</v>
       </c>
       <c r="BF91" t="n">
         <v>0</v>
@@ -34420,7 +34420,7 @@
         <v>0</v>
       </c>
       <c r="DN92" t="n">
-        <v>2.715231172341539</v>
+        <v>0</v>
       </c>
       <c r="DO92" t="n">
         <v>0</v>
@@ -34643,7 +34643,7 @@
         <v>0</v>
       </c>
       <c r="BR93" t="n">
-        <v>2.026588023396071</v>
+        <v>0</v>
       </c>
       <c r="BS93" t="n">
         <v>0</v>
@@ -34664,7 +34664,7 @@
         <v>0</v>
       </c>
       <c r="BY93" t="n">
-        <v>2.134791594229202</v>
+        <v>0</v>
       </c>
       <c r="BZ93" t="n">
         <v>0</v>
@@ -34679,7 +34679,7 @@
         <v>0</v>
       </c>
       <c r="CD93" t="n">
-        <v>2.454863770544415</v>
+        <v>0</v>
       </c>
       <c r="CE93" t="n">
         <v>0</v>
@@ -34703,7 +34703,7 @@
         <v>0</v>
       </c>
       <c r="CL93" t="n">
-        <v>2.334226486108856</v>
+        <v>0</v>
       </c>
       <c r="CM93" t="n">
         <v>0</v>
@@ -34757,7 +34757,7 @@
         <v>0</v>
       </c>
       <c r="DD93" t="n">
-        <v>1.781342104741422</v>
+        <v>0</v>
       </c>
       <c r="DE93" t="n">
         <v>0</v>
@@ -34908,7 +34908,7 @@
         <v>0</v>
       </c>
       <c r="AJ94" t="n">
-        <v>2.253179293150111</v>
+        <v>2.959092056477027</v>
       </c>
       <c r="AK94" t="n">
         <v>0</v>
@@ -35079,7 +35079,7 @@
         <v>0</v>
       </c>
       <c r="CO94" t="n">
-        <v>0</v>
+        <v>3.322765761641183</v>
       </c>
       <c r="CP94" t="n">
         <v>0</v>
@@ -35437,7 +35437,7 @@
         <v>0</v>
       </c>
       <c r="CL95" t="n">
-        <v>2.42927047326542</v>
+        <v>0</v>
       </c>
       <c r="CM95" t="n">
         <v>0</v>
@@ -35816,7 +35816,7 @@
         <v>0</v>
       </c>
       <c r="CP96" t="n">
-        <v>0</v>
+        <v>3.342694197385144</v>
       </c>
       <c r="CQ96" t="n">
         <v>0</v>
@@ -36156,7 +36156,7 @@
         <v>0</v>
       </c>
       <c r="CG97" t="n">
-        <v>0</v>
+        <v>10.38856720520072</v>
       </c>
       <c r="CH97" t="n">
         <v>0</v>
@@ -36252,7 +36252,7 @@
         <v>0</v>
       </c>
       <c r="DM97" t="n">
-        <v>4.856836408928787</v>
+        <v>0</v>
       </c>
       <c r="DN97" t="n">
         <v>0</v>
@@ -36857,7 +36857,7 @@
         <v>0</v>
       </c>
       <c r="BV99" t="n">
-        <v>0</v>
+        <v>5.787885133784821</v>
       </c>
       <c r="BW99" t="n">
         <v>0</v>
@@ -37260,7 +37260,7 @@
         <v>0</v>
       </c>
       <c r="CH100" t="n">
-        <v>0</v>
+        <v>4.465324419589725</v>
       </c>
       <c r="CI100" t="n">
         <v>0</v>
@@ -37669,7 +37669,7 @@
         <v>0</v>
       </c>
       <c r="CV101" t="n">
-        <v>3.417820660019495</v>
+        <v>0</v>
       </c>
       <c r="CW101" t="n">
         <v>0</v>
@@ -37678,7 +37678,7 @@
         <v>0</v>
       </c>
       <c r="CY101" t="n">
-        <v>3.33617621511837</v>
+        <v>0</v>
       </c>
       <c r="CZ101" t="n">
         <v>0</v>
@@ -38000,7 +38000,7 @@
         <v>0</v>
       </c>
       <c r="CJ102" t="n">
-        <v>0</v>
+        <v>3.728441045777916</v>
       </c>
       <c r="CK102" t="n">
         <v>0</v>
@@ -38045,7 +38045,7 @@
         <v>0</v>
       </c>
       <c r="CY102" t="n">
-        <v>1.857470144582341</v>
+        <v>0</v>
       </c>
       <c r="CZ102" t="n">
         <v>0</v>
@@ -38406,10 +38406,10 @@
         <v>0</v>
       </c>
       <c r="CW103" t="n">
-        <v>0</v>
+        <v>4.506633048235432</v>
       </c>
       <c r="CX103" t="n">
-        <v>0</v>
+        <v>3.194256377288258</v>
       </c>
       <c r="CY103" t="n">
         <v>0</v>
@@ -38463,7 +38463,7 @@
         <v>0</v>
       </c>
       <c r="DP103" t="n">
-        <v>2.627608310005196</v>
+        <v>4.267941791365376</v>
       </c>
       <c r="DQ103" t="n">
         <v>0</v>
@@ -38749,7 +38749,7 @@
         <v>0</v>
       </c>
       <c r="CO104" t="n">
-        <v>1.884772291616472</v>
+        <v>0</v>
       </c>
       <c r="CP104" t="n">
         <v>0</v>
@@ -38876,7 +38876,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>5.282926325767537</v>
+        <v>0</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
@@ -39188,7 +39188,7 @@
         <v>0</v>
       </c>
       <c r="DM105" t="n">
-        <v>0</v>
+        <v>9.352415722665551</v>
       </c>
       <c r="DN105" t="n">
         <v>0</v>
@@ -39483,7 +39483,7 @@
         <v>0</v>
       </c>
       <c r="CO106" t="n">
-        <v>1.956230888120116</v>
+        <v>0</v>
       </c>
       <c r="CP106" t="n">
         <v>0</v>
@@ -39528,7 +39528,7 @@
         <v>0</v>
       </c>
       <c r="DD106" t="n">
-        <v>0</v>
+        <v>3.38512891335933</v>
       </c>
       <c r="DE106" t="n">
         <v>0</v>
@@ -39561,7 +39561,7 @@
         <v>0</v>
       </c>
       <c r="DO106" t="n">
-        <v>2.222306613458181</v>
+        <v>0</v>
       </c>
       <c r="DP106" t="n">
         <v>0</v>
@@ -39895,7 +39895,7 @@
         <v>0</v>
       </c>
       <c r="DD107" t="n">
-        <v>2.09509928931322</v>
+        <v>2.661422878145768</v>
       </c>
       <c r="DE107" t="n">
         <v>0</v>
@@ -39904,7 +39904,7 @@
         <v>0</v>
       </c>
       <c r="DG107" t="n">
-        <v>3.297702829840322</v>
+        <v>5.47885509821529</v>
       </c>
       <c r="DH107" t="n">
         <v>0</v>
@@ -39919,7 +39919,7 @@
         <v>0</v>
       </c>
       <c r="DL107" t="n">
-        <v>2.565320295079449</v>
+        <v>0</v>
       </c>
       <c r="DM107" t="n">
         <v>0</v>
@@ -40217,7 +40217,7 @@
         <v>0</v>
       </c>
       <c r="CO108" t="n">
-        <v>0</v>
+        <v>3.18325859689945</v>
       </c>
       <c r="CP108" t="n">
         <v>0</v>
@@ -40250,7 +40250,7 @@
         <v>0</v>
       </c>
       <c r="CZ108" t="n">
-        <v>0</v>
+        <v>3.334070263053433</v>
       </c>
       <c r="DA108" t="n">
         <v>0</v>
@@ -40265,7 +40265,7 @@
         <v>0</v>
       </c>
       <c r="DE108" t="n">
-        <v>2.019126964728427</v>
+        <v>3.078282222337354</v>
       </c>
       <c r="DF108" t="n">
         <v>0</v>
@@ -40587,13 +40587,13 @@
         <v>0</v>
       </c>
       <c r="CP109" t="n">
-        <v>2.264547000224924</v>
+        <v>0</v>
       </c>
       <c r="CQ109" t="n">
         <v>0</v>
       </c>
       <c r="CR109" t="n">
-        <v>2.386451298278907</v>
+        <v>0</v>
       </c>
       <c r="CS109" t="n">
         <v>0</v>
@@ -41008,7 +41008,7 @@
         <v>0</v>
       </c>
       <c r="DH110" t="n">
-        <v>5.072669491507415</v>
+        <v>6.922411670352731</v>
       </c>
       <c r="DI110" t="n">
         <v>0</v>
@@ -41715,7 +41715,7 @@
         <v>0</v>
       </c>
       <c r="CY112" t="n">
-        <v>0</v>
+        <v>6.198370804203642</v>
       </c>
       <c r="CZ112" t="n">
         <v>0</v>
@@ -41745,7 +41745,7 @@
         <v>0</v>
       </c>
       <c r="DI112" t="n">
-        <v>6.420443790450282</v>
+        <v>0</v>
       </c>
       <c r="DJ112" t="n">
         <v>0</v>
@@ -41757,7 +41757,7 @@
         <v>0</v>
       </c>
       <c r="DM112" t="n">
-        <v>4.811474328015417</v>
+        <v>8.422531713745734</v>
       </c>
       <c r="DN112" t="n">
         <v>0</v>
@@ -42431,7 +42431,7 @@
         <v>0</v>
       </c>
       <c r="CS114" t="n">
-        <v>5.971619216059938</v>
+        <v>0</v>
       </c>
       <c r="CT114" t="n">
         <v>0</v>
@@ -42663,13 +42663,13 @@
         <v>0</v>
       </c>
       <c r="AZ115" t="n">
-        <v>7.897077357666783</v>
+        <v>0</v>
       </c>
       <c r="BA115" t="n">
         <v>0</v>
       </c>
       <c r="BB115" t="n">
-        <v>0</v>
+        <v>12.99514264058605</v>
       </c>
       <c r="BC115" t="n">
         <v>0</v>
@@ -43117,7 +43117,7 @@
         <v>0</v>
       </c>
       <c r="CC116" t="n">
-        <v>2.756290035159068</v>
+        <v>0</v>
       </c>
       <c r="CD116" t="n">
         <v>0</v>
@@ -43138,7 +43138,7 @@
         <v>0</v>
       </c>
       <c r="CJ116" t="n">
-        <v>0</v>
+        <v>4.126988534875386</v>
       </c>
       <c r="CK116" t="n">
         <v>0</v>
@@ -43168,7 +43168,7 @@
         <v>0</v>
       </c>
       <c r="CT116" t="n">
-        <v>3.297306516461826</v>
+        <v>5.748083237982177</v>
       </c>
       <c r="CU116" t="n">
         <v>0</v>
@@ -43195,7 +43195,7 @@
         <v>0</v>
       </c>
       <c r="DC116" t="n">
-        <v>0</v>
+        <v>4.028007056426821</v>
       </c>
       <c r="DD116" t="n">
         <v>0</v>
@@ -43532,7 +43532,7 @@
         <v>0</v>
       </c>
       <c r="CS117" t="n">
-        <v>0</v>
+        <v>8.209685783490666</v>
       </c>
       <c r="CT117" t="n">
         <v>0</v>
@@ -43583,7 +43583,7 @@
         <v>0</v>
       </c>
       <c r="DJ117" t="n">
-        <v>0</v>
+        <v>9.189669067772762</v>
       </c>
       <c r="DK117" t="n">
         <v>0</v>
@@ -43884,7 +43884,7 @@
         <v>0</v>
       </c>
       <c r="CN118" t="n">
-        <v>0</v>
+        <v>4.500749687974652</v>
       </c>
       <c r="CO118" t="n">
         <v>0</v>
@@ -43956,7 +43956,7 @@
         <v>0</v>
       </c>
       <c r="DL118" t="n">
-        <v>2.843220180726963</v>
+        <v>3.868577759009491</v>
       </c>
       <c r="DM118" t="n">
         <v>0</v>
@@ -44582,7 +44582,7 @@
         <v>0</v>
       </c>
       <c r="CB120" t="n">
-        <v>0</v>
+        <v>5.255793894499886</v>
       </c>
       <c r="CC120" t="n">
         <v>0</v>
@@ -44970,7 +44970,7 @@
         <v>0</v>
       </c>
       <c r="CI121" t="n">
-        <v>0</v>
+        <v>3.94287723746926</v>
       </c>
       <c r="CJ121" t="n">
         <v>0</v>
@@ -45066,7 +45066,7 @@
         <v>0</v>
       </c>
       <c r="DO121" t="n">
-        <v>2.264496439908632</v>
+        <v>3.524911179282058</v>
       </c>
       <c r="DP121" t="n">
         <v>0</v>
